--- a/excel_interface_test/data/api_cases.xlsx
+++ b/excel_interface_test/data/api_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\interface_test\excel_interface_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC63FE1-F9E0-4E13-9EAD-5BB11EB7EFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B65C5C-A413-4B45-8A9E-69A4A5ABDF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3660" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>编号</t>
   </si>
@@ -803,7 +803,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -942,11 +942,14 @@
       <c r="F4" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="2">
-        <v>202101</v>
+      <c r="I4" t="s">
+        <v>55</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>57</v>

--- a/excel_interface_test/data/api_cases.xlsx
+++ b/excel_interface_test/data/api_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\interface_test\excel_interface_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B65C5C-A413-4B45-8A9E-69A4A5ABDF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC0D9A9-EEDE-4B57-A427-EA80645648B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3660" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_cases (2)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>编号</t>
   </si>
@@ -176,9 +176,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"skey":"123456791"}</t>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -191,18 +188,36 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>测试skey为空情况</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>skey不能为空</t>
   </si>
   <si>
+    <t>测试get请求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"skey":"123456790"}</t>
+  </si>
+  <si>
     <t>{"skey":""}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>测试get请求</t>
+    <t>ip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>183.221.24.61</t>
+  </si>
+  <si>
+    <t>参数类型（必填）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -800,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,6 +827,7 @@
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="38.375" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="12" max="12" width="35.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
@@ -836,8 +852,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -877,17 +893,17 @@
       <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2">
-        <v>202101</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -901,26 +917,26 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+        <v>57</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -933,34 +949,68 @@
       <c r="C4" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{8A024C3F-7E78-4713-AB1B-6F9B4CD5700E}"/>
     <hyperlink ref="B3:B4" r:id="rId2" display="https://api.uomg.com" xr:uid="{AFA537AF-77BA-490A-A839-E50A2C3B6668}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{ED427CB6-36BD-4824-A072-7843B8F4182C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
